--- a/i18n/fin_excel/历史曲线标签20240322.xlsx
+++ b/i18n/fin_excel/历史曲线标签20240322.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\jsh_projcet\jsh-python-toolkit\i18n\fin_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251E2971-2D6D-47D5-AFF4-15F7052A8DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B97532F-ED97-4D44-8FC3-2B763FDE1401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1758,6 +1758,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1777,6 +1778,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1796,6 +1798,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1815,6 +1818,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1834,6 +1838,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1853,6 +1858,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1884,6 +1890,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1903,6 +1910,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1922,6 +1930,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1953,6 +1962,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1972,6 +1982,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1991,6 +2002,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2010,6 +2022,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2041,6 +2054,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2060,6 +2074,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2079,6 +2094,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2098,6 +2114,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2117,6 +2134,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2148,6 +2166,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2167,6 +2186,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2186,6 +2206,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2205,6 +2226,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2224,6 +2246,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2255,6 +2278,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2274,6 +2298,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2293,6 +2318,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2312,6 +2338,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2331,6 +2358,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2350,6 +2378,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2381,6 +2410,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2412,6 +2442,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2431,6 +2462,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2450,6 +2482,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2469,6 +2502,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2488,6 +2522,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2510,6 +2545,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2529,6 +2565,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2548,6 +2585,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2567,6 +2605,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2586,6 +2625,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2608,6 +2648,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2627,6 +2668,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2658,6 +2700,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2677,6 +2720,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2708,6 +2752,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2727,6 +2772,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2758,6 +2804,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2777,6 +2824,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2796,6 +2844,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2815,6 +2864,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2834,6 +2884,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2865,6 +2916,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2884,6 +2936,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2903,6 +2956,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2922,6 +2976,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2941,6 +2996,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2960,6 +3016,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2979,6 +3036,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3010,6 +3068,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3029,6 +3088,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3060,6 +3120,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3079,6 +3140,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3098,6 +3160,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3117,6 +3180,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3136,6 +3200,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3155,6 +3220,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3174,6 +3240,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3193,6 +3260,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3224,6 +3292,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3243,6 +3312,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3262,6 +3332,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3281,6 +3352,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3300,6 +3372,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3319,6 +3392,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3350,6 +3424,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3369,6 +3444,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3388,6 +3464,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3407,6 +3484,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3426,6 +3504,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3445,6 +3524,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3464,6 +3544,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3495,6 +3576,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3514,6 +3596,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3545,6 +3628,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3576,6 +3660,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3607,6 +3692,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3642,6 +3728,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3661,6 +3748,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3680,6 +3768,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3711,6 +3800,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3730,6 +3820,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3761,6 +3852,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3780,6 +3872,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3799,6 +3892,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3830,6 +3924,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3849,6 +3944,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3868,6 +3964,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3887,6 +3984,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3906,6 +4004,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3925,6 +4024,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3959,6 +4059,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3978,6 +4079,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3997,6 +4099,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4016,6 +4119,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4035,6 +4139,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4070,6 +4175,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4101,6 +4207,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4132,6 +4239,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4151,6 +4259,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4170,6 +4279,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4189,6 +4299,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4208,6 +4319,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4227,6 +4339,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4246,6 +4359,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4277,6 +4391,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4296,6 +4411,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4315,6 +4431,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4334,6 +4451,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4353,6 +4471,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4372,6 +4491,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4391,6 +4511,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4410,6 +4531,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4429,6 +4551,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4460,6 +4583,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4479,6 +4603,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4498,6 +4623,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4517,6 +4643,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4536,6 +4663,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4555,6 +4683,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4586,6 +4715,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4605,6 +4735,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4624,6 +4755,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4643,6 +4775,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4662,6 +4795,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4681,6 +4815,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4700,6 +4835,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4731,6 +4867,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4750,6 +4887,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4769,6 +4907,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4788,6 +4927,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4807,6 +4947,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4826,6 +4967,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4857,6 +4999,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4876,6 +5019,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4895,6 +5039,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4914,6 +5059,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4933,6 +5079,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4964,6 +5111,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4983,6 +5131,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5002,6 +5151,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5021,6 +5171,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5040,6 +5191,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5059,6 +5211,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5090,6 +5243,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5109,6 +5263,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5128,6 +5283,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5147,6 +5303,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5166,6 +5323,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5197,6 +5355,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5216,6 +5375,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5235,6 +5395,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5254,6 +5415,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5273,6 +5435,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5292,6 +5455,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5323,6 +5487,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5342,6 +5507,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5361,6 +5527,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5380,6 +5547,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5399,6 +5567,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5418,6 +5587,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5437,6 +5607,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5468,6 +5639,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5487,6 +5659,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5506,6 +5679,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5525,6 +5699,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5544,6 +5719,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5563,6 +5739,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5594,6 +5771,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5613,6 +5791,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5632,6 +5811,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5651,6 +5831,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5670,6 +5851,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5701,6 +5883,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5720,6 +5903,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5739,6 +5923,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5758,6 +5943,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5777,6 +5963,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5796,6 +5983,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5827,6 +6015,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5846,6 +6035,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5865,6 +6055,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5884,6 +6075,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5903,6 +6095,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5934,6 +6127,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5953,6 +6147,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5972,6 +6167,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5991,6 +6187,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6010,6 +6207,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6041,6 +6239,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6060,6 +6259,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6079,6 +6279,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6098,6 +6299,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6117,6 +6319,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6148,6 +6351,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6167,6 +6371,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6186,6 +6391,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6534,11 +6740,13 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -6944,8 +7152,8 @@
   <dimension ref="A1:G194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
